--- a/database/industries/biscuit/ghesalem/official/yearly.xlsx
+++ b/database/industries/biscuit/ghesalem/official/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FD2C6-E2F6-47C4-8DB6-B8398659D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC6C3E-7177-4C3E-9900-9A05F7B6D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -542,12 +542,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -557,7 +557,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -591,7 +591,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -625,7 +625,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -657,29 +657,29 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>18955</v>
+        <v>32075</v>
       </c>
       <c r="F10" s="9">
-        <v>32075</v>
+        <v>46966</v>
       </c>
       <c r="G10" s="9">
-        <v>46966</v>
+        <v>91892</v>
       </c>
       <c r="H10" s="9">
-        <v>91892</v>
+        <v>161461</v>
       </c>
       <c r="I10" s="9">
-        <v>161461</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>234762</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>412110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -755,85 +755,85 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="G14" s="9">
-        <v>1396</v>
+        <v>2609</v>
       </c>
       <c r="H14" s="9">
-        <v>2609</v>
+        <v>4090</v>
       </c>
       <c r="I14" s="9">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="F15" s="11">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="G15" s="11">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="H15" s="11">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="I15" s="11">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>1260</v>
+        <v>1734</v>
       </c>
       <c r="F16" s="9">
-        <v>1734</v>
+        <v>3192</v>
       </c>
       <c r="G16" s="9">
-        <v>3192</v>
+        <v>8921</v>
       </c>
       <c r="H16" s="9">
-        <v>8921</v>
+        <v>9552</v>
       </c>
       <c r="I16" s="9">
-        <v>9552</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12781</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>20407</v>
+        <v>24006</v>
       </c>
       <c r="F17" s="11">
-        <v>24006</v>
+        <v>34646</v>
       </c>
       <c r="G17" s="11">
-        <v>34646</v>
+        <v>51315</v>
       </c>
       <c r="H17" s="11">
-        <v>51315</v>
+        <v>97579</v>
       </c>
       <c r="I17" s="11">
-        <v>97579</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160483</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -855,51 +855,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>9439</v>
+        <v>11571</v>
       </c>
       <c r="F19" s="11">
-        <v>11571</v>
+        <v>15791</v>
       </c>
       <c r="G19" s="11">
-        <v>15791</v>
+        <v>22574</v>
       </c>
       <c r="H19" s="11">
-        <v>22574</v>
+        <v>34287</v>
       </c>
       <c r="I19" s="11">
-        <v>34287</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>50321</v>
+        <v>69606</v>
       </c>
       <c r="F20" s="13">
-        <v>69606</v>
+        <v>102267</v>
       </c>
       <c r="G20" s="13">
-        <v>102267</v>
+        <v>177605</v>
       </c>
       <c r="H20" s="13">
-        <v>177605</v>
+        <v>307324</v>
       </c>
       <c r="I20" s="13">
-        <v>307324</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>892802</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -909,7 +909,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -919,7 +919,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -929,7 +929,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -961,51 +961,51 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F26" s="9">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G26" s="9">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H26" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I26" s="9">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="F27" s="11">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G27" s="11">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="H27" s="11">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="I27" s="11">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1015,7 +1015,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1035,7 +1035,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
